--- a/data/lake-superior-thunder-bay/lake-superior-thunder-bay-spawning.xlsx
+++ b/data/lake-superior-thunder-bay/lake-superior-thunder-bay-spawning.xlsx
@@ -1,40 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-DegreeDay-Modeling/data/lake-superior-thunder-bay/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-superior-thunder-bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D3BA2C-B86B-A44F-ABD2-CCC5E46D6299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1392C4-2EE6-9445-822B-57460E9E712A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lake-superior-thunder-bay-spawn" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'lake-superior-thunder-bay-spawn'!$A$1:$F$277</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>spawn.abundance</t>
+    <t>mature</t>
+  </si>
+  <si>
+    <t>ripe</t>
+  </si>
+  <si>
+    <t>spent</t>
+  </si>
+  <si>
+    <t>prop.ripe</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -512,9 +535,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -869,393 +893,5561 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>38302</v>
+      </c>
+      <c r="B2" s="2">
         <v>2005</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>38304</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>38305</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>38306</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>38307</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>38308</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>38309</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>38310</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>38311</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>38312</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>38313</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>38314</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>38315</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>38316</v>
       </c>
-      <c r="C2">
+      <c r="B15" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4.5454544999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>38317</v>
+      </c>
+      <c r="B16" s="2">
         <v>2005</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>38318</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C17">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>38319</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>38320</v>
       </c>
-      <c r="C3">
+      <c r="B19" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>38321</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="1">
-        <v>39048</v>
-      </c>
-      <c r="C4">
+      <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2007</v>
-      </c>
-      <c r="B5" s="1">
-        <v>39049</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2008</v>
-      </c>
-      <c r="B6" s="1">
-        <v>39409</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="1">
-        <v>39410</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2008</v>
-      </c>
-      <c r="B8" s="1">
-        <v>39413</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="1">
-        <v>39415</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="1">
-        <v>39776</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="1">
-        <v>39779</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12" s="1">
-        <v>39780</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2013</v>
-      </c>
-      <c r="B13" s="1">
-        <v>41227</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="1">
-        <v>41229</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="1">
-        <v>41608</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="1">
-        <v>41610</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="1">
-        <v>41968</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="1">
-        <v>42675</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="1">
-        <v>42676</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="1">
-        <v>42681</v>
-      </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="1">
-        <v>42682</v>
+      <c r="F20">
+        <v>2.7027026999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>38332</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2005</v>
       </c>
       <c r="C21">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2017</v>
-      </c>
-      <c r="B22" s="1">
-        <v>42684</v>
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>38667</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2006</v>
       </c>
       <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>38669</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>38670</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>38671</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C25">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="1">
-        <v>42685</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="1">
-        <v>42687</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2017</v>
-      </c>
-      <c r="B25" s="1">
-        <v>42688</v>
-      </c>
-      <c r="C25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2017</v>
-      </c>
-      <c r="B26" s="1">
-        <v>42689</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>38672</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2006</v>
       </c>
       <c r="C26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2017</v>
-      </c>
-      <c r="B27" s="1">
-        <v>42690</v>
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>38673</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2006</v>
       </c>
       <c r="C27">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>38674</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>38675</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>38676</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>38677</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>38678</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>38679</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>38681</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>38682</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>38683</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>38685</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>38697</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>39032</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39034</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39035</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>39036</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>39037</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>39038</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>39039</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>39040</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>39041</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>39042</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C48">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>39043</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>39044</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>39045</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>39046</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>39047</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>39048</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.14285714299999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>39049</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>39050</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>39062</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>39397</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>39399</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>39400</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>39401</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>39402</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>39403</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>39404</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>39405</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>39406</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>39407</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>39408</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>39409</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C69">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0.133333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>39410</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0.18181818199999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>39411</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C71">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>39412</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0.14285714299999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>39413</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C73">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0.235294118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>39414</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>39415</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>39416</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>39427</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C77">
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>39763</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C78">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>39765</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>39766</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>39767</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>39768</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>39769</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C83">
+        <v>29</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>39770</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>39771</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C85">
+        <v>29</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>39772</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C86">
+        <v>38</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>39773</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C87">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>39774</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C88">
+        <v>30</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>39775</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>39776</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C90">
+        <v>29</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>3.3333333E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>39777</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>39778</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C92">
+        <v>20</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>39779</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C93">
+        <v>18</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>39780</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C94">
+        <v>18</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>39781</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>39782</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C96">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>39793</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>40128</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C98">
+        <v>29</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>40130</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>40131</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C100">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>40132</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>40133</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>40134</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C103">
+        <v>30</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>40135</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C104">
+        <v>29</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>40136</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C105">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>40137</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C106">
+        <v>30</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>40138</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C107">
+        <v>18</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>40139</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C108">
+        <v>29</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>3.3333333E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>40140</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C109">
+        <v>19</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>40141</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>40142</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C111">
+        <v>16</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>40143</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>40144</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>40145</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>40146</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C115">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>40158</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C116">
+        <v>20</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>40484</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>40485</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>40486</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>40487</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C120">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>40488</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>40489</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>40490</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C123">
+        <v>16</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>40491</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>40492</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>40493</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C126">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>40494</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>40495</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C128">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>40496</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>40498</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C130">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>40499</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C131">
+        <v>15</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>40500</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C132">
+        <v>14</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>40501</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>40502</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C134">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>40503</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C135">
+        <v>11</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>40504</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C136">
+        <v>4</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>40505</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C137">
+        <v>16</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>40506</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C138">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>40507</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C139">
+        <v>4</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>40508</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>40509</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C141">
+        <v>11</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>40858</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C142">
+        <v>19</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>40860</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C143">
+        <v>30</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>40861</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C144">
+        <v>40</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>40862</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C145">
+        <v>20</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>40863</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C146">
+        <v>28</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>40864</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C147">
+        <v>30</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>40865</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C148">
+        <v>19</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>40866</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C149">
+        <v>30</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>40867</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>40868</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C151">
+        <v>19</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>40869</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C152">
+        <v>20</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>40870</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C153">
+        <v>20</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>40871</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C154">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>40872</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>40873</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>40888</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C157">
+        <v>29</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>41224</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C158">
+        <v>20</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>41226</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C159">
+        <v>40</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>41227</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C160">
+        <v>17</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>5.5555555999999999E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>41228</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C161">
+        <v>29</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>41229</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C162">
+        <v>28</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>3.4482759000000002E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>41230</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C163">
+        <v>29</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>41231</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C164">
+        <v>10</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>41232</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C165">
+        <v>20</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>41233</v>
+      </c>
+      <c r="B166" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C166">
+        <v>20</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>41234</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C167">
+        <v>18</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>41254</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C168">
+        <v>19</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B169" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>41580</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>41581</v>
+      </c>
+      <c r="B171" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C171">
+        <v>9</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>41582</v>
+      </c>
+      <c r="B172" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>41583</v>
+      </c>
+      <c r="B173" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>41584</v>
+      </c>
+      <c r="B174" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>41585</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>41586</v>
+      </c>
+      <c r="B176" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C176">
+        <v>18</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>41587</v>
+      </c>
+      <c r="B177" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C177">
+        <v>20</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>41588</v>
+      </c>
+      <c r="B178" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C178">
+        <v>20</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>41589</v>
+      </c>
+      <c r="B179" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C179">
+        <v>20</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>41590</v>
+      </c>
+      <c r="B180" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C180">
+        <v>20</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>41592</v>
+      </c>
+      <c r="B181" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>41593</v>
+      </c>
+      <c r="B182" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C182">
+        <v>9</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>41594</v>
+      </c>
+      <c r="B183" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C183">
+        <v>20</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>41595</v>
+      </c>
+      <c r="B184" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C184">
+        <v>20</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>41596</v>
+      </c>
+      <c r="B185" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C185">
+        <v>20</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>41597</v>
+      </c>
+      <c r="B186" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C186">
+        <v>20</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>41598</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C187">
+        <v>20</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>41599</v>
+      </c>
+      <c r="B188" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>41600</v>
+      </c>
+      <c r="B189" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C189">
+        <v>9</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>41602</v>
+      </c>
+      <c r="B190" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C190">
+        <v>10</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>41603</v>
+      </c>
+      <c r="B191" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>41606</v>
+      </c>
+      <c r="B192" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>41607</v>
+      </c>
+      <c r="B193" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C193">
+        <v>19</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B194" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C194">
+        <v>19</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B195" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C195">
+        <v>19</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>41610</v>
+      </c>
+      <c r="B196" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C196">
+        <v>7</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>41611</v>
+      </c>
+      <c r="B197" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C197">
+        <v>8</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>41947</v>
+      </c>
+      <c r="B198" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C198">
+        <v>10</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>41948</v>
+      </c>
+      <c r="B199" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>41949</v>
+      </c>
+      <c r="B200" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C200">
+        <v>20</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>41950</v>
+      </c>
+      <c r="B201" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>41951</v>
+      </c>
+      <c r="B202" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C202">
+        <v>20</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>41952</v>
+      </c>
+      <c r="B203" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C203">
+        <v>20</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>41953</v>
+      </c>
+      <c r="B204" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C204">
+        <v>20</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>41954</v>
+      </c>
+      <c r="B205" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C205">
+        <v>19</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>41955</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C206">
+        <v>20</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>41956</v>
+      </c>
+      <c r="B207" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C207">
+        <v>20</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>41957</v>
+      </c>
+      <c r="B208" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C208">
+        <v>19</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>41958</v>
+      </c>
+      <c r="B209" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C209">
+        <v>20</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>41959</v>
+      </c>
+      <c r="B210" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C210">
+        <v>20</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>41960</v>
+      </c>
+      <c r="B211" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C211">
+        <v>29</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>41961</v>
+      </c>
+      <c r="B212" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C212">
+        <v>20</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>41962</v>
+      </c>
+      <c r="B213" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C213">
+        <v>30</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>41963</v>
+      </c>
+      <c r="B214" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C214">
+        <v>30</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>41964</v>
+      </c>
+      <c r="B215" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C215">
+        <v>20</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>41965</v>
+      </c>
+      <c r="B216" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C216">
+        <v>20</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>41966</v>
+      </c>
+      <c r="B217" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C217">
+        <v>10</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B218" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C218">
+        <v>20</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>41968</v>
+      </c>
+      <c r="B219" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C219">
+        <v>29</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>3.3333333E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>41969</v>
+      </c>
+      <c r="B220" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C220">
+        <v>50</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>41970</v>
+      </c>
+      <c r="B221" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C221">
+        <v>38</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>41971</v>
+      </c>
+      <c r="B222" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C222">
+        <v>10</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B223" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C223">
+        <v>16</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>42310</v>
+      </c>
+      <c r="B224" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C224">
+        <v>20</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>42311</v>
+      </c>
+      <c r="B225" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C225">
+        <v>30</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>42312</v>
+      </c>
+      <c r="B226" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C226">
+        <v>20</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>42313</v>
+      </c>
+      <c r="B227" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C227">
+        <v>29</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>42314</v>
+      </c>
+      <c r="B228" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C228">
+        <v>19</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>42315</v>
+      </c>
+      <c r="B229" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C229">
+        <v>28</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>42316</v>
+      </c>
+      <c r="B230" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C230">
+        <v>20</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>42317</v>
+      </c>
+      <c r="B231" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C231">
+        <v>14</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>42318</v>
+      </c>
+      <c r="B232" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C232">
+        <v>19</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B233" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C233">
+        <v>30</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>42320</v>
+      </c>
+      <c r="B234" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C234">
+        <v>39</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>42321</v>
+      </c>
+      <c r="B235" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C235">
+        <v>20</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>42322</v>
+      </c>
+      <c r="B236" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C236">
+        <v>9</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>42323</v>
+      </c>
+      <c r="B237" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C237">
+        <v>31</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>42324</v>
+      </c>
+      <c r="B238" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C238">
+        <v>20</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>42325</v>
+      </c>
+      <c r="B239" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C239">
+        <v>19</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>42326</v>
+      </c>
+      <c r="B240" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C240">
+        <v>20</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>42327</v>
+      </c>
+      <c r="B241" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C241">
+        <v>9</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>42329</v>
+      </c>
+      <c r="B242" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C242">
+        <v>10</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>42330</v>
+      </c>
+      <c r="B243" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C243">
+        <v>20</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>42331</v>
+      </c>
+      <c r="B244" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C244">
+        <v>19</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B245" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C245">
+        <v>19</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>42334</v>
+      </c>
+      <c r="B246" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C246">
+        <v>20</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B247" s="2">
         <v>2017</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>7</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>42676</v>
+      </c>
+      <c r="B248" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>9</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>42681</v>
+      </c>
+      <c r="B249" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>29</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B250" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>27</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>42684</v>
+      </c>
+      <c r="B251" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>20</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>42685</v>
+      </c>
+      <c r="B252" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>10</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>42687</v>
+      </c>
+      <c r="B253" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>10</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>42688</v>
+      </c>
+      <c r="B254" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>29</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B255" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>28</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>42690</v>
+      </c>
+      <c r="B256" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>19</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
         <v>42691</v>
       </c>
-      <c r="C28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="B257" s="2">
         <v>2017</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>30</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
         <v>42692</v>
       </c>
-      <c r="C29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="B258" s="2">
         <v>2017</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>20</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
         <v>42694</v>
       </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="B259" s="2">
         <v>2017</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
         <v>42695</v>
       </c>
-      <c r="C31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="B260" s="2">
         <v>2017</v>
       </c>
-      <c r="B32" s="1">
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>30</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
         <v>42696</v>
       </c>
-      <c r="C32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="B261" s="2">
         <v>2017</v>
       </c>
-      <c r="B33" s="1">
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>10</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
         <v>42697</v>
       </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="B262" s="2">
         <v>2017</v>
       </c>
-      <c r="B34" s="1">
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>29</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
         <v>42698</v>
       </c>
-      <c r="C34">
+      <c r="B263" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>12</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>43776</v>
+      </c>
+      <c r="B264" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C264">
+        <v>7</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B265" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C265">
         <v>6</v>
       </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B266" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C266">
+        <v>4</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B267" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C267">
+        <v>4</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>43780</v>
+      </c>
+      <c r="B268" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C268">
+        <v>17</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B269" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C269">
+        <v>10</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B270" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C270">
+        <v>8</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B271" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C271">
+        <v>10</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B272" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C272">
+        <v>7</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B273" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C273">
+        <v>7</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B274" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C274">
+        <v>8</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B275" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C275">
+        <v>6</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B276" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>43795</v>
+      </c>
+      <c r="B277" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F277" xr:uid="{52C1752D-D2CC-DD40-AFDD-9BF8F0B33626}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/lake-superior-thunder-bay/lake-superior-thunder-bay-spawning.xlsx
+++ b/data/lake-superior-thunder-bay/lake-superior-thunder-bay-spawning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-superior-thunder-bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1392C4-2EE6-9445-822B-57460E9E712A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F081997C-23B6-134C-B6CA-26C93A086723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>spent</t>
   </si>
   <si>
-    <t>prop.ripe</t>
+    <t>year</t>
   </si>
   <si>
-    <t>year</t>
+    <t>percent.ripe</t>
   </si>
 </sst>
 </file>
@@ -535,10 +535,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,13 +898,14 @@
   <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -911,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -922,8 +924,8 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,7 +944,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -962,7 +964,7 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -982,7 +984,7 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1002,7 +1004,7 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1022,7 +1024,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1042,7 +1044,7 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1062,7 +1064,7 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1082,8 +1084,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>0.05</v>
+      <c r="F9" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1102,7 +1104,7 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1122,7 +1124,7 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1142,8 +1144,8 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>0.111111111</v>
+      <c r="F12" s="3">
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1162,7 +1164,7 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1182,7 +1184,7 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1202,8 +1204,8 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>4.5454544999999999E-2</v>
+      <c r="F15" s="3">
+        <v>4.5454545454545459</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1222,7 +1224,7 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1242,7 +1244,7 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1262,7 +1264,7 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1282,8 +1284,8 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>6.25E-2</v>
+      <c r="F19" s="3">
+        <v>6.25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1302,8 +1304,8 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>2.7027026999999999E-2</v>
+      <c r="F20" s="3">
+        <v>2.7027027027027026</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1322,7 +1324,7 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1342,7 +1344,7 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1362,7 +1364,7 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1382,7 +1384,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1402,7 +1404,7 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1422,7 +1424,7 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1442,7 +1444,7 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1462,7 +1464,7 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1482,7 +1484,7 @@
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1502,7 +1504,7 @@
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1522,7 +1524,7 @@
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1542,7 +1544,7 @@
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1562,7 +1564,7 @@
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1582,7 +1584,7 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1602,7 +1604,7 @@
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1622,7 +1624,7 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1642,7 +1644,7 @@
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1662,7 +1664,7 @@
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1682,7 +1684,7 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1702,7 +1704,7 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1722,7 +1724,7 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1742,7 +1744,7 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1762,7 +1764,7 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1782,7 +1784,7 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1802,7 +1804,7 @@
       <c r="E45">
         <v>0</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1822,7 +1824,7 @@
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1842,7 +1844,7 @@
       <c r="E47">
         <v>0</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1862,7 +1864,7 @@
       <c r="E48">
         <v>0</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1882,7 +1884,7 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1902,7 +1904,7 @@
       <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1922,7 +1924,7 @@
       <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1942,7 +1944,7 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1962,7 +1964,7 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1982,8 +1984,8 @@
       <c r="E54">
         <v>0</v>
       </c>
-      <c r="F54">
-        <v>0.14285714299999999</v>
+      <c r="F54" s="3">
+        <v>14.285714285714285</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2002,8 +2004,8 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55">
-        <v>0.25</v>
+      <c r="F55" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2022,7 +2024,7 @@
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2042,7 +2044,7 @@
       <c r="E57">
         <v>0</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2062,7 +2064,7 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2082,7 +2084,7 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2102,7 +2104,7 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2122,7 +2124,7 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2142,7 +2144,7 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2162,7 +2164,7 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2182,7 +2184,7 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +2204,7 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2222,7 +2224,7 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2242,7 +2244,7 @@
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2262,7 +2264,7 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2282,8 +2284,8 @@
       <c r="E69">
         <v>0</v>
       </c>
-      <c r="F69">
-        <v>0.133333333</v>
+      <c r="F69" s="3">
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2302,8 +2304,8 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70">
-        <v>0.18181818199999999</v>
+      <c r="F70" s="3">
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2322,7 +2324,7 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2342,8 +2344,8 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72">
-        <v>0.14285714299999999</v>
+      <c r="F72" s="3">
+        <v>14.285714285714285</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2362,8 +2364,8 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73">
-        <v>0.235294118</v>
+      <c r="F73" s="3">
+        <v>23.52941176470588</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2382,7 +2384,7 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2402,8 +2404,8 @@
       <c r="E75">
         <v>0</v>
       </c>
-      <c r="F75">
-        <v>0.25</v>
+      <c r="F75" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2422,7 +2424,7 @@
       <c r="E76">
         <v>0</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2442,7 +2444,7 @@
       <c r="E77">
         <v>0</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2464,7 @@
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2482,7 +2484,7 @@
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2502,7 +2504,7 @@
       <c r="E80">
         <v>0</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2522,7 +2524,7 @@
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2542,7 +2544,7 @@
       <c r="E82">
         <v>0</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2562,7 +2564,7 @@
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2582,7 +2584,7 @@
       <c r="E84">
         <v>0</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2602,7 +2604,7 @@
       <c r="E85">
         <v>0</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2622,7 +2624,7 @@
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2642,7 +2644,7 @@
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2662,7 +2664,7 @@
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2682,7 +2684,7 @@
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2702,8 +2704,8 @@
       <c r="E90">
         <v>0</v>
       </c>
-      <c r="F90">
-        <v>3.3333333E-2</v>
+      <c r="F90" s="3">
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -2722,7 +2724,7 @@
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2742,7 +2744,7 @@
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2762,8 +2764,8 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93">
-        <v>0.1</v>
+      <c r="F93" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -2782,8 +2784,8 @@
       <c r="E94">
         <v>0</v>
       </c>
-      <c r="F94">
-        <v>0.1</v>
+      <c r="F94" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -2802,7 +2804,7 @@
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2822,7 +2824,7 @@
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2842,7 +2844,7 @@
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2862,7 +2864,7 @@
       <c r="E98">
         <v>0</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2882,7 +2884,7 @@
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2902,7 +2904,7 @@
       <c r="E100">
         <v>0</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2922,7 +2924,7 @@
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2942,7 +2944,7 @@
       <c r="E102">
         <v>0</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2962,7 +2964,7 @@
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2982,7 +2984,7 @@
       <c r="E104">
         <v>0</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3002,7 +3004,7 @@
       <c r="E105">
         <v>0</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3022,7 +3024,7 @@
       <c r="E106">
         <v>0</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3042,7 +3044,7 @@
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3062,8 +3064,8 @@
       <c r="E108">
         <v>0</v>
       </c>
-      <c r="F108">
-        <v>3.3333333E-2</v>
+      <c r="F108" s="3">
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -3082,7 +3084,7 @@
       <c r="E109">
         <v>0</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3102,8 +3104,8 @@
       <c r="E110">
         <v>0</v>
       </c>
-      <c r="F110">
-        <v>0.1</v>
+      <c r="F110" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -3122,8 +3124,8 @@
       <c r="E111">
         <v>0</v>
       </c>
-      <c r="F111">
-        <v>0.2</v>
+      <c r="F111" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3142,7 +3144,7 @@
       <c r="E112">
         <v>0</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3162,7 +3164,7 @@
       <c r="E113">
         <v>0</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3182,7 +3184,7 @@
       <c r="E114">
         <v>0</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3202,7 +3204,7 @@
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3222,7 +3224,7 @@
       <c r="E116">
         <v>0</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3242,7 +3244,7 @@
       <c r="E117">
         <v>0</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3262,7 +3264,7 @@
       <c r="E118">
         <v>0</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3282,7 +3284,7 @@
       <c r="E119">
         <v>0</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3302,7 +3304,7 @@
       <c r="E120">
         <v>0</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3322,7 +3324,7 @@
       <c r="E121">
         <v>0</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3342,7 +3344,7 @@
       <c r="E122">
         <v>0</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3362,7 +3364,7 @@
       <c r="E123">
         <v>0</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3382,7 +3384,7 @@
       <c r="E124">
         <v>0</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3402,7 +3404,7 @@
       <c r="E125">
         <v>0</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3422,7 +3424,7 @@
       <c r="E126">
         <v>0</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3442,7 +3444,7 @@
       <c r="E127">
         <v>0</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3462,7 +3464,7 @@
       <c r="E128">
         <v>0</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3482,7 +3484,7 @@
       <c r="E129">
         <v>0</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3502,7 +3504,7 @@
       <c r="E130">
         <v>0</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3522,7 +3524,7 @@
       <c r="E131">
         <v>0</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3542,7 +3544,7 @@
       <c r="E132">
         <v>0</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3562,7 +3564,7 @@
       <c r="E133">
         <v>0</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3582,7 +3584,7 @@
       <c r="E134">
         <v>0</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3602,7 +3604,7 @@
       <c r="E135">
         <v>0</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3622,7 +3624,7 @@
       <c r="E136">
         <v>0</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3642,7 +3644,7 @@
       <c r="E137">
         <v>0</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3662,7 +3664,7 @@
       <c r="E138">
         <v>0</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3682,7 +3684,7 @@
       <c r="E139">
         <v>0</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3702,7 +3704,7 @@
       <c r="E140">
         <v>0</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3722,7 +3724,7 @@
       <c r="E141">
         <v>0</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3742,7 +3744,7 @@
       <c r="E142">
         <v>0</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3762,7 +3764,7 @@
       <c r="E143">
         <v>0</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3782,7 +3784,7 @@
       <c r="E144">
         <v>0</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3802,7 +3804,7 @@
       <c r="E145">
         <v>0</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3822,7 +3824,7 @@
       <c r="E146">
         <v>0</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3842,7 +3844,7 @@
       <c r="E147">
         <v>0</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3862,7 +3864,7 @@
       <c r="E148">
         <v>0</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3882,7 +3884,7 @@
       <c r="E149">
         <v>0</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3902,7 +3904,7 @@
       <c r="E150">
         <v>0</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3922,7 +3924,7 @@
       <c r="E151">
         <v>0</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3942,7 +3944,7 @@
       <c r="E152">
         <v>0</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3962,7 +3964,7 @@
       <c r="E153">
         <v>0</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3982,7 +3984,7 @@
       <c r="E154">
         <v>0</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4002,7 +4004,7 @@
       <c r="E155">
         <v>0</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4024,7 @@
       <c r="E156">
         <v>0</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4042,7 +4044,7 @@
       <c r="E157">
         <v>0</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4062,7 +4064,7 @@
       <c r="E158">
         <v>0</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4082,7 +4084,7 @@
       <c r="E159">
         <v>0</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4102,8 +4104,8 @@
       <c r="E160">
         <v>0</v>
       </c>
-      <c r="F160">
-        <v>5.5555555999999999E-2</v>
+      <c r="F160" s="3">
+        <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -4122,7 +4124,7 @@
       <c r="E161">
         <v>0</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4142,8 +4144,8 @@
       <c r="E162">
         <v>0</v>
       </c>
-      <c r="F162">
-        <v>3.4482759000000002E-2</v>
+      <c r="F162" s="3">
+        <v>3.4482758620689653</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -4162,7 +4164,7 @@
       <c r="E163">
         <v>0</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4182,7 +4184,7 @@
       <c r="E164">
         <v>0</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4202,7 +4204,7 @@
       <c r="E165">
         <v>0</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4222,7 +4224,7 @@
       <c r="E166">
         <v>0</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4242,7 +4244,7 @@
       <c r="E167">
         <v>1</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4262,7 +4264,7 @@
       <c r="E168">
         <v>0</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4282,7 +4284,7 @@
       <c r="E169">
         <v>0</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4302,7 +4304,7 @@
       <c r="E170">
         <v>0</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4322,7 +4324,7 @@
       <c r="E171">
         <v>0</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4342,7 +4344,7 @@
       <c r="E172">
         <v>0</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4362,7 +4364,7 @@
       <c r="E173">
         <v>0</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4382,7 +4384,7 @@
       <c r="E174">
         <v>0</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4402,7 +4404,7 @@
       <c r="E175">
         <v>0</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4422,7 +4424,7 @@
       <c r="E176">
         <v>0</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4442,7 +4444,7 @@
       <c r="E177">
         <v>0</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4462,7 +4464,7 @@
       <c r="E178">
         <v>0</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4482,7 +4484,7 @@
       <c r="E179">
         <v>0</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4502,7 +4504,7 @@
       <c r="E180">
         <v>0</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4522,7 +4524,7 @@
       <c r="E181">
         <v>0</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4542,7 +4544,7 @@
       <c r="E182">
         <v>0</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4562,7 +4564,7 @@
       <c r="E183">
         <v>0</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4582,7 +4584,7 @@
       <c r="E184">
         <v>0</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4602,7 +4604,7 @@
       <c r="E185">
         <v>0</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4622,7 +4624,7 @@
       <c r="E186">
         <v>0</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4642,7 +4644,7 @@
       <c r="E187">
         <v>0</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4662,7 +4664,7 @@
       <c r="E188">
         <v>0</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4682,7 +4684,7 @@
       <c r="E189">
         <v>0</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4702,7 +4704,7 @@
       <c r="E190">
         <v>0</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4722,7 +4724,7 @@
       <c r="E191">
         <v>0</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4742,7 +4744,7 @@
       <c r="E192">
         <v>0</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4762,7 +4764,7 @@
       <c r="E193">
         <v>0</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4782,8 +4784,8 @@
       <c r="E194">
         <v>0</v>
       </c>
-      <c r="F194">
-        <v>0.05</v>
+      <c r="F194" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -4802,7 +4804,7 @@
       <c r="E195">
         <v>0</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4822,8 +4824,8 @@
       <c r="E196">
         <v>2</v>
       </c>
-      <c r="F196">
-        <v>0.1</v>
+      <c r="F196" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -4842,7 +4844,7 @@
       <c r="E197">
         <v>1</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4862,7 +4864,7 @@
       <c r="E198">
         <v>0</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4882,7 +4884,7 @@
       <c r="E199">
         <v>0</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4902,7 +4904,7 @@
       <c r="E200">
         <v>0</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4922,7 +4924,7 @@
       <c r="E201">
         <v>0</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4942,7 +4944,7 @@
       <c r="E202">
         <v>0</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4962,7 +4964,7 @@
       <c r="E203">
         <v>0</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4982,7 +4984,7 @@
       <c r="E204">
         <v>0</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5002,7 +5004,7 @@
       <c r="E205">
         <v>0</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5022,7 +5024,7 @@
       <c r="E206">
         <v>0</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5042,7 +5044,7 @@
       <c r="E207">
         <v>0</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5062,7 +5064,7 @@
       <c r="E208">
         <v>0</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5082,7 +5084,7 @@
       <c r="E209">
         <v>0</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5102,7 +5104,7 @@
       <c r="E210">
         <v>0</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5122,7 +5124,7 @@
       <c r="E211">
         <v>0</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5142,7 +5144,7 @@
       <c r="E212">
         <v>0</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5162,7 +5164,7 @@
       <c r="E213">
         <v>0</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5182,7 +5184,7 @@
       <c r="E214">
         <v>0</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5202,7 +5204,7 @@
       <c r="E215">
         <v>0</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5222,7 +5224,7 @@
       <c r="E216">
         <v>0</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5242,7 +5244,7 @@
       <c r="E217">
         <v>0</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5262,7 +5264,7 @@
       <c r="E218">
         <v>0</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5282,8 +5284,8 @@
       <c r="E219">
         <v>0</v>
       </c>
-      <c r="F219">
-        <v>3.3333333E-2</v>
+      <c r="F219" s="3">
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -5302,7 +5304,7 @@
       <c r="E220">
         <v>0</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5322,7 +5324,7 @@
       <c r="E221">
         <v>2</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5342,7 +5344,7 @@
       <c r="E222">
         <v>0</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5362,7 +5364,7 @@
       <c r="E223">
         <v>0</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5382,7 +5384,7 @@
       <c r="E224">
         <v>0</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5402,7 +5404,7 @@
       <c r="E225">
         <v>0</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5422,7 +5424,7 @@
       <c r="E226">
         <v>0</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5442,7 +5444,7 @@
       <c r="E227">
         <v>0</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5462,7 +5464,7 @@
       <c r="E228">
         <v>0</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5482,7 +5484,7 @@
       <c r="E229">
         <v>0</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5502,7 +5504,7 @@
       <c r="E230">
         <v>0</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5522,7 +5524,7 @@
       <c r="E231">
         <v>0</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5542,7 +5544,7 @@
       <c r="E232">
         <v>0</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5562,7 +5564,7 @@
       <c r="E233">
         <v>0</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5582,7 +5584,7 @@
       <c r="E234">
         <v>0</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5602,7 +5604,7 @@
       <c r="E235">
         <v>0</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5622,7 +5624,7 @@
       <c r="E236">
         <v>0</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5642,7 +5644,7 @@
       <c r="E237">
         <v>0</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5662,7 +5664,7 @@
       <c r="E238">
         <v>0</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5682,7 +5684,7 @@
       <c r="E239">
         <v>0</v>
       </c>
-      <c r="F239">
+      <c r="F239" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5702,7 +5704,7 @@
       <c r="E240">
         <v>0</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5722,7 +5724,7 @@
       <c r="E241">
         <v>1</v>
       </c>
-      <c r="F241">
+      <c r="F241" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5742,7 +5744,7 @@
       <c r="E242">
         <v>0</v>
       </c>
-      <c r="F242">
+      <c r="F242" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5762,7 +5764,7 @@
       <c r="E243">
         <v>0</v>
       </c>
-      <c r="F243">
+      <c r="F243" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5782,7 +5784,7 @@
       <c r="E244">
         <v>0</v>
       </c>
-      <c r="F244">
+      <c r="F244" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5802,7 +5804,7 @@
       <c r="E245">
         <v>0</v>
       </c>
-      <c r="F245">
+      <c r="F245" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5822,7 +5824,7 @@
       <c r="E246">
         <v>0</v>
       </c>
-      <c r="F246">
+      <c r="F246" s="3">
         <v>0</v>
       </c>
     </row>
@@ -5842,8 +5844,8 @@
       <c r="E247">
         <v>0</v>
       </c>
-      <c r="F247">
-        <v>1</v>
+      <c r="F247" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -5862,8 +5864,8 @@
       <c r="E248">
         <v>0</v>
       </c>
-      <c r="F248">
-        <v>1</v>
+      <c r="F248" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -5882,8 +5884,8 @@
       <c r="E249">
         <v>0</v>
       </c>
-      <c r="F249">
-        <v>1</v>
+      <c r="F249" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -5902,8 +5904,8 @@
       <c r="E250">
         <v>0</v>
       </c>
-      <c r="F250">
-        <v>1</v>
+      <c r="F250" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -5922,8 +5924,8 @@
       <c r="E251">
         <v>0</v>
       </c>
-      <c r="F251">
-        <v>1</v>
+      <c r="F251" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
@@ -5942,8 +5944,8 @@
       <c r="E252">
         <v>0</v>
       </c>
-      <c r="F252">
-        <v>1</v>
+      <c r="F252" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -5962,8 +5964,8 @@
       <c r="E253">
         <v>0</v>
       </c>
-      <c r="F253">
-        <v>1</v>
+      <c r="F253" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -5982,8 +5984,8 @@
       <c r="E254">
         <v>0</v>
       </c>
-      <c r="F254">
-        <v>1</v>
+      <c r="F254" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -6002,8 +6004,8 @@
       <c r="E255">
         <v>0</v>
       </c>
-      <c r="F255">
-        <v>1</v>
+      <c r="F255" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -6022,8 +6024,8 @@
       <c r="E256">
         <v>0</v>
       </c>
-      <c r="F256">
-        <v>1</v>
+      <c r="F256" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -6042,8 +6044,8 @@
       <c r="E257">
         <v>0</v>
       </c>
-      <c r="F257">
-        <v>1</v>
+      <c r="F257" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -6062,8 +6064,8 @@
       <c r="E258">
         <v>0</v>
       </c>
-      <c r="F258">
-        <v>1</v>
+      <c r="F258" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -6082,8 +6084,8 @@
       <c r="E259">
         <v>0</v>
       </c>
-      <c r="F259">
-        <v>1</v>
+      <c r="F259" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -6102,8 +6104,8 @@
       <c r="E260">
         <v>0</v>
       </c>
-      <c r="F260">
-        <v>1</v>
+      <c r="F260" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -6122,8 +6124,8 @@
       <c r="E261">
         <v>0</v>
       </c>
-      <c r="F261">
-        <v>1</v>
+      <c r="F261" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -6142,8 +6144,8 @@
       <c r="E262">
         <v>0</v>
       </c>
-      <c r="F262">
-        <v>1</v>
+      <c r="F262" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -6162,8 +6164,8 @@
       <c r="E263">
         <v>0</v>
       </c>
-      <c r="F263">
-        <v>1</v>
+      <c r="F263" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -6182,7 +6184,7 @@
       <c r="E264">
         <v>0</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6202,7 +6204,7 @@
       <c r="E265">
         <v>0</v>
       </c>
-      <c r="F265">
+      <c r="F265" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6222,7 +6224,7 @@
       <c r="E266">
         <v>0</v>
       </c>
-      <c r="F266">
+      <c r="F266" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6242,7 +6244,7 @@
       <c r="E267">
         <v>0</v>
       </c>
-      <c r="F267">
+      <c r="F267" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6262,7 +6264,7 @@
       <c r="E268">
         <v>0</v>
       </c>
-      <c r="F268">
+      <c r="F268" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6282,7 +6284,7 @@
       <c r="E269">
         <v>0</v>
       </c>
-      <c r="F269">
+      <c r="F269" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6302,7 +6304,7 @@
       <c r="E270">
         <v>0</v>
       </c>
-      <c r="F270">
+      <c r="F270" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6322,7 +6324,7 @@
       <c r="E271">
         <v>0</v>
       </c>
-      <c r="F271">
+      <c r="F271" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6342,7 +6344,7 @@
       <c r="E272">
         <v>0</v>
       </c>
-      <c r="F272">
+      <c r="F272" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6362,7 +6364,7 @@
       <c r="E273">
         <v>0</v>
       </c>
-      <c r="F273">
+      <c r="F273" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6382,7 +6384,7 @@
       <c r="E274">
         <v>0</v>
       </c>
-      <c r="F274">
+      <c r="F274" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6402,7 +6404,7 @@
       <c r="E275">
         <v>0</v>
       </c>
-      <c r="F275">
+      <c r="F275" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6422,7 +6424,7 @@
       <c r="E276">
         <v>0</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6442,7 +6444,7 @@
       <c r="E277">
         <v>0</v>
       </c>
-      <c r="F277">
+      <c r="F277" s="3">
         <v>0</v>
       </c>
     </row>

--- a/data/lake-superior-thunder-bay/lake-superior-thunder-bay-spawning.xlsx
+++ b/data/lake-superior-thunder-bay/lake-superior-thunder-bay-spawning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-superior-thunder-bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F081997C-23B6-134C-B6CA-26C93A086723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A8F2A-E633-184C-B7C7-D3FEA4155C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="lake-superior-thunder-bay-spawn" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'lake-superior-thunder-bay-spawn'!$A$1:$F$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'lake-superior-thunder-bay-spawn'!$A$31:$F$307</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -52,6 +52,78 @@
   </si>
   <si>
     <t>percent.ripe</t>
+  </si>
+  <si>
+    <t>#/////////////////////////////////////</t>
+  </si>
+  <si>
+    <t># -----START OF METADATA -----</t>
+  </si>
+  <si>
+    <t># ------------------------------------------------</t>
+  </si>
+  <si>
+    <t># TITLE: Biological parameters for temperature-dependent embryo development model</t>
+  </si>
+  <si>
+    <t># DATE: 1-July-2021</t>
+  </si>
+  <si>
+    <t># AUTHOR: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># AUTHOR EMAIL: taylor.stewart@uvm.edu</t>
+  </si>
+  <si>
+    <t># AUTHOR ADDRESS: 3 College St, Burlington VT, 05401 USA</t>
+  </si>
+  <si>
+    <t># AUTHOR WEBSITE: https://taylorstewart.github.io/</t>
+  </si>
+  <si>
+    <t># COLLABORATORS: Matteo Zucchetta; Juha Karjalainen; Chloé Goulon; Orlane Anneville; Mark R. Vinson; Josef Wanzenböck; and Jason D. Stockwell</t>
+  </si>
+  <si>
+    <t># FUNDING SOURCES: USGS #G17AC00042</t>
+  </si>
+  <si>
+    <t># REPOSITORY: https://github.com/taylorstewart/Stewart-et-al-20XX---Coregonine-Embryo-Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># CITATIONS: </t>
+  </si>
+  <si>
+    <t># VARIABLE DESCRIPTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # year: year class (plus one year from actual spawning date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # date: date of capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # ripe: number of spawning individuals ripe (actively spawning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # spent: number of spawning indivudlas spent (post-spawning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # percent.ripe: percentage of daily spawning individuals actively spawning</t>
+  </si>
+  <si>
+    <t># ----- END OF METADATA -----</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># ----- START OF DATA -----</t>
+  </si>
+  <si>
+    <t># OWNERSHIP: Ontario of Ministry of Natural Resources and Forestry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # mature: number of mature spawning individuals</t>
   </si>
 </sst>
 </file>
@@ -895,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,635 +980,269 @@
     <col min="6" max="6" width="13.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" s="1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" s="1"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" s="1"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="1"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="1"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" s="1"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="1"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" s="1"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" s="1"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" s="1"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" s="1"/>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" s="1"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" s="1"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" s="1"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" s="1"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" s="1"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" s="1"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" s="1"/>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" s="1"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" s="1"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" s="1"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" s="1"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" s="1"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" s="1"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>38302</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>38304</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>38305</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>38306</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C5">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>38307</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>38308</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>38309</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>38310</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>38311</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>38312</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>38313</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>38314</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>38315</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>38316</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4.5454545454545459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>38317</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>38318</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C17">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>38319</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>38320</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>38321</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C20">
-        <v>35</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2.7027027027027026</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>38332</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2005</v>
-      </c>
-      <c r="C21">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>38667</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>38669</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>38670</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>38671</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C25">
-        <v>13</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>38672</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>38673</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C27">
-        <v>15</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>38674</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C28">
-        <v>14</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>38675</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>38676</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C30">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>38677</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>38678</v>
+        <v>38302</v>
       </c>
       <c r="B32" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1550,19 +1256,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>38679</v>
+        <v>38304</v>
       </c>
       <c r="B33" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1570,13 +1276,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>38681</v>
+        <v>38305</v>
       </c>
       <c r="B34" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1590,13 +1296,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>38682</v>
+        <v>38306</v>
       </c>
       <c r="B35" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1610,19 +1316,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>38683</v>
+        <v>38307</v>
       </c>
       <c r="B36" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1630,13 +1336,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>38685</v>
+        <v>38308</v>
       </c>
       <c r="B37" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1650,13 +1356,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>38697</v>
+        <v>38309</v>
       </c>
       <c r="B38" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1670,39 +1376,39 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>39032</v>
+        <v>38310</v>
       </c>
       <c r="B39" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39034</v>
+        <v>38311</v>
       </c>
       <c r="B40" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -1710,13 +1416,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>39035</v>
+        <v>38312</v>
       </c>
       <c r="B41" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1730,33 +1436,33 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>39036</v>
+        <v>38313</v>
       </c>
       <c r="B42" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>11.111111111111111</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>39037</v>
+        <v>38314</v>
       </c>
       <c r="B43" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1770,19 +1476,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>39038</v>
+        <v>38315</v>
       </c>
       <c r="B44" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C44">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1790,39 +1496,39 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>39039</v>
+        <v>38316</v>
       </c>
       <c r="B45" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C45">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>4.5454545454545459</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>39040</v>
+        <v>38317</v>
       </c>
       <c r="B46" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1830,13 +1536,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>39041</v>
+        <v>38318</v>
       </c>
       <c r="B47" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1850,19 +1556,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>39042</v>
+        <v>38319</v>
       </c>
       <c r="B48" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -1870,53 +1576,53 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>39043</v>
+        <v>38320</v>
       </c>
       <c r="B49" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>39044</v>
+        <v>38321</v>
       </c>
       <c r="B50" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="3">
-        <v>0</v>
+        <v>2.7027027027027026</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>39045</v>
+        <v>38332</v>
       </c>
       <c r="B51" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1930,13 +1636,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>39046</v>
+        <v>38667</v>
       </c>
       <c r="B52" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1950,13 +1656,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>39047</v>
+        <v>38669</v>
       </c>
       <c r="B53" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1970,53 +1676,53 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>39048</v>
+        <v>38670</v>
       </c>
       <c r="B54" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>39049</v>
+        <v>38671</v>
       </c>
       <c r="B55" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>39050</v>
+        <v>38672</v>
       </c>
       <c r="B56" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2030,13 +1736,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>39062</v>
+        <v>38673</v>
       </c>
       <c r="B57" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2050,13 +1756,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>39397</v>
+        <v>38674</v>
       </c>
       <c r="B58" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2070,13 +1776,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>39399</v>
+        <v>38675</v>
       </c>
       <c r="B59" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C59">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2090,13 +1796,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>39400</v>
+        <v>38676</v>
       </c>
       <c r="B60" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2110,13 +1816,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>39401</v>
+        <v>38677</v>
       </c>
       <c r="B61" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C61">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2130,19 +1836,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>39402</v>
+        <v>38678</v>
       </c>
       <c r="B62" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2150,13 +1856,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>39403</v>
+        <v>38679</v>
       </c>
       <c r="B63" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2170,13 +1876,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>39404</v>
+        <v>38681</v>
       </c>
       <c r="B64" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2190,13 +1896,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>39405</v>
+        <v>38682</v>
       </c>
       <c r="B65" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2210,19 +1916,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>39406</v>
+        <v>38683</v>
       </c>
       <c r="B66" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2230,13 +1936,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>39407</v>
+        <v>38685</v>
       </c>
       <c r="B67" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C67">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2250,13 +1956,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>39408</v>
+        <v>38697</v>
       </c>
       <c r="B68" s="2">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C68">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -2270,53 +1976,53 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>39409</v>
+        <v>39032</v>
       </c>
       <c r="B69" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C69">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69" s="3">
-        <v>13.333333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>39410</v>
+        <v>39034</v>
       </c>
       <c r="B70" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" s="3">
-        <v>18.181818181818183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>39411</v>
+        <v>39035</v>
       </c>
       <c r="B71" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C71">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2330,59 +2036,59 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>39412</v>
+        <v>39036</v>
       </c>
       <c r="B72" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72" s="3">
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>39413</v>
+        <v>39037</v>
       </c>
       <c r="B73" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C73">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73" s="3">
-        <v>23.52941176470588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>39414</v>
+        <v>39038</v>
       </c>
       <c r="B74" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C74">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2390,39 +2096,39 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>39415</v>
+        <v>39039</v>
       </c>
       <c r="B75" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>39416</v>
+        <v>39040</v>
       </c>
       <c r="B76" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2430,13 +2136,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>39427</v>
+        <v>39041</v>
       </c>
       <c r="B77" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2450,13 +2156,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>39763</v>
+        <v>39042</v>
       </c>
       <c r="B78" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2470,13 +2176,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>39765</v>
+        <v>39043</v>
       </c>
       <c r="B79" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C79">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -2490,13 +2196,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>39766</v>
+        <v>39044</v>
       </c>
       <c r="B80" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C80">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2510,13 +2216,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>39767</v>
+        <v>39045</v>
       </c>
       <c r="B81" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2530,13 +2236,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>39768</v>
+        <v>39046</v>
       </c>
       <c r="B82" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2550,13 +2256,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>39769</v>
+        <v>39047</v>
       </c>
       <c r="B83" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C83">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2570,53 +2276,53 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>39770</v>
+        <v>39048</v>
       </c>
       <c r="B84" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C84">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84" s="3">
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>39771</v>
+        <v>39049</v>
       </c>
       <c r="B85" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C85">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>39772</v>
+        <v>39050</v>
       </c>
       <c r="B86" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C86">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2630,13 +2336,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>39773</v>
+        <v>39062</v>
       </c>
       <c r="B87" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2650,13 +2356,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>39774</v>
+        <v>39397</v>
       </c>
       <c r="B88" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C88">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2670,13 +2376,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>39775</v>
+        <v>39399</v>
       </c>
       <c r="B89" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C89">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2690,33 +2396,33 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>39776</v>
+        <v>39400</v>
       </c>
       <c r="B90" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C90">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90" s="3">
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>39777</v>
+        <v>39401</v>
       </c>
       <c r="B91" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2730,19 +2436,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>39778</v>
+        <v>39402</v>
       </c>
       <c r="B92" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C92">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -2750,53 +2456,53 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>39779</v>
+        <v>39403</v>
       </c>
       <c r="B93" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C93">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>39780</v>
+        <v>39404</v>
       </c>
       <c r="B94" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C94">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>39781</v>
+        <v>39405</v>
       </c>
       <c r="B95" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2810,13 +2516,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>39782</v>
+        <v>39406</v>
       </c>
       <c r="B96" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C96">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2830,13 +2536,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>39793</v>
+        <v>39407</v>
       </c>
       <c r="B97" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C97">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2850,13 +2556,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>40128</v>
+        <v>39408</v>
       </c>
       <c r="B98" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C98">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2870,53 +2576,53 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>40130</v>
+        <v>39409</v>
       </c>
       <c r="B99" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" s="3">
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>40131</v>
+        <v>39410</v>
       </c>
       <c r="B100" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C100">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>18.181818181818183</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>40132</v>
+        <v>39411</v>
       </c>
       <c r="B101" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2930,59 +2636,59 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>40133</v>
+        <v>39412</v>
       </c>
       <c r="B102" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C102">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>40134</v>
+        <v>39413</v>
       </c>
       <c r="B103" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C103">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103" s="3">
-        <v>0</v>
+        <v>23.52941176470588</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>40135</v>
+        <v>39414</v>
       </c>
       <c r="B104" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C104">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -2990,33 +2696,33 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>40136</v>
+        <v>39415</v>
       </c>
       <c r="B105" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C105">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>40137</v>
+        <v>39416</v>
       </c>
       <c r="B106" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C106">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -3030,13 +2736,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>40138</v>
+        <v>39427</v>
       </c>
       <c r="B107" s="2">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C107">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -3050,33 +2756,33 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>40139</v>
+        <v>39763</v>
       </c>
       <c r="B108" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C108">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108" s="3">
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>40140</v>
+        <v>39765</v>
       </c>
       <c r="B109" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C109">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3090,50 +2796,50 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>40141</v>
+        <v>39766</v>
       </c>
       <c r="B110" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>40142</v>
+        <v>39767</v>
       </c>
       <c r="B111" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C111">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>40143</v>
+        <v>39768</v>
       </c>
       <c r="B112" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C112">
         <v>20</v>
@@ -3150,13 +2856,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>40144</v>
+        <v>39769</v>
       </c>
       <c r="B113" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C113">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3170,13 +2876,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>40145</v>
+        <v>39770</v>
       </c>
       <c r="B114" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3190,13 +2896,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>40146</v>
+        <v>39771</v>
       </c>
       <c r="B115" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3210,13 +2916,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>40158</v>
+        <v>39772</v>
       </c>
       <c r="B116" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C116">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3230,13 +2936,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>40484</v>
+        <v>39773</v>
       </c>
       <c r="B117" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3250,13 +2956,13 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>40485</v>
+        <v>39774</v>
       </c>
       <c r="B118" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -3270,13 +2976,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>40486</v>
+        <v>39775</v>
       </c>
       <c r="B119" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -3290,33 +2996,33 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>40487</v>
+        <v>39776</v>
       </c>
       <c r="B120" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C120">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120" s="3">
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>40488</v>
+        <v>39777</v>
       </c>
       <c r="B121" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3330,13 +3036,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>40489</v>
+        <v>39778</v>
       </c>
       <c r="B122" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3350,53 +3056,53 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>40490</v>
+        <v>39779</v>
       </c>
       <c r="B123" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C123">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>40491</v>
+        <v>39780</v>
       </c>
       <c r="B124" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>40492</v>
+        <v>39781</v>
       </c>
       <c r="B125" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3410,13 +3116,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>40493</v>
+        <v>39782</v>
       </c>
       <c r="B126" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C126">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3430,13 +3136,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>40494</v>
+        <v>39793</v>
       </c>
       <c r="B127" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3450,13 +3156,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>40495</v>
+        <v>40128</v>
       </c>
       <c r="B128" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C128">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3470,13 +3176,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>40496</v>
+        <v>40130</v>
       </c>
       <c r="B129" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -3490,13 +3196,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>40498</v>
+        <v>40131</v>
       </c>
       <c r="B130" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C130">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -3510,13 +3216,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>40499</v>
+        <v>40132</v>
       </c>
       <c r="B131" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C131">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -3530,13 +3236,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>40500</v>
+        <v>40133</v>
       </c>
       <c r="B132" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C132">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -3550,13 +3256,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>40501</v>
+        <v>40134</v>
       </c>
       <c r="B133" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -3570,13 +3276,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>40502</v>
+        <v>40135</v>
       </c>
       <c r="B134" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C134">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -3590,13 +3296,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>40503</v>
+        <v>40136</v>
       </c>
       <c r="B135" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C135">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3610,13 +3316,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>40504</v>
+        <v>40137</v>
       </c>
       <c r="B136" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C136">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -3630,13 +3336,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>40505</v>
+        <v>40138</v>
       </c>
       <c r="B137" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C137">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -3650,33 +3356,33 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>40506</v>
+        <v>40139</v>
       </c>
       <c r="B138" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C138">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138" s="3">
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>40507</v>
+        <v>40140</v>
       </c>
       <c r="B139" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3690,53 +3396,53 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>40508</v>
+        <v>40141</v>
       </c>
       <c r="B140" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>40509</v>
+        <v>40142</v>
       </c>
       <c r="B141" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C141">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>40858</v>
+        <v>40143</v>
       </c>
       <c r="B142" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C142">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -3750,13 +3456,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>40860</v>
+        <v>40144</v>
       </c>
       <c r="B143" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C143">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3770,13 +3476,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>40861</v>
+        <v>40145</v>
       </c>
       <c r="B144" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C144">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -3790,13 +3496,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>40862</v>
+        <v>40146</v>
       </c>
       <c r="B145" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C145">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -3810,13 +3516,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>40863</v>
+        <v>40158</v>
       </c>
       <c r="B146" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C146">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -3830,13 +3536,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>40864</v>
+        <v>40484</v>
       </c>
       <c r="B147" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C147">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -3850,13 +3556,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>40865</v>
+        <v>40485</v>
       </c>
       <c r="B148" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C148">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -3870,13 +3576,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>40866</v>
+        <v>40486</v>
       </c>
       <c r="B149" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C149">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3890,13 +3596,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>40867</v>
+        <v>40487</v>
       </c>
       <c r="B150" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C150">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -3910,13 +3616,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>40868</v>
+        <v>40488</v>
       </c>
       <c r="B151" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C151">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -3930,13 +3636,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>40869</v>
+        <v>40489</v>
       </c>
       <c r="B152" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C152">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -3950,13 +3656,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>40870</v>
+        <v>40490</v>
       </c>
       <c r="B153" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C153">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -3970,13 +3676,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>40871</v>
+        <v>40491</v>
       </c>
       <c r="B154" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C154">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -3990,13 +3696,13 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>40872</v>
+        <v>40492</v>
       </c>
       <c r="B155" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C155">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -4010,13 +3716,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>40873</v>
+        <v>40493</v>
       </c>
       <c r="B156" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C156">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -4030,13 +3736,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>40888</v>
+        <v>40494</v>
       </c>
       <c r="B157" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C157">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -4050,13 +3756,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>41224</v>
+        <v>40495</v>
       </c>
       <c r="B158" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C158">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -4070,13 +3776,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>41226</v>
+        <v>40496</v>
       </c>
       <c r="B159" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C159">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -4090,33 +3796,33 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>41227</v>
+        <v>40498</v>
       </c>
       <c r="B160" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C160">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <v>5.5555555555555554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>41228</v>
+        <v>40499</v>
       </c>
       <c r="B161" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C161">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -4130,33 +3836,33 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>41229</v>
+        <v>40500</v>
       </c>
       <c r="B162" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C162">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
       <c r="F162" s="3">
-        <v>3.4482758620689653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>41230</v>
+        <v>40501</v>
       </c>
       <c r="B163" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C163">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -4170,13 +3876,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>41231</v>
+        <v>40502</v>
       </c>
       <c r="B164" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C164">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -4190,13 +3896,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>41232</v>
+        <v>40503</v>
       </c>
       <c r="B165" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C165">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -4210,13 +3916,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>41233</v>
+        <v>40504</v>
       </c>
       <c r="B166" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C166">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -4230,19 +3936,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>41234</v>
+        <v>40505</v>
       </c>
       <c r="B167" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C167">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
@@ -4250,13 +3956,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>41254</v>
+        <v>40506</v>
       </c>
       <c r="B168" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C168">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -4270,13 +3976,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>41579</v>
+        <v>40507</v>
       </c>
       <c r="B169" s="2">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C169">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -4290,13 +3996,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>41580</v>
+        <v>40508</v>
       </c>
       <c r="B170" s="2">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C170">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -4310,13 +4016,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>41581</v>
+        <v>40509</v>
       </c>
       <c r="B171" s="2">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C171">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -4330,13 +4036,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>41582</v>
+        <v>40858</v>
       </c>
       <c r="B172" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C172">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -4350,13 +4056,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>41583</v>
+        <v>40860</v>
       </c>
       <c r="B173" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C173">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -4370,13 +4076,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>41584</v>
+        <v>40861</v>
       </c>
       <c r="B174" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C174">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -4390,10 +4096,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>41585</v>
+        <v>40862</v>
       </c>
       <c r="B175" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C175">
         <v>20</v>
@@ -4410,13 +4116,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>41586</v>
+        <v>40863</v>
       </c>
       <c r="B176" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C176">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -4430,13 +4136,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>41587</v>
+        <v>40864</v>
       </c>
       <c r="B177" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C177">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -4450,13 +4156,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>41588</v>
+        <v>40865</v>
       </c>
       <c r="B178" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C178">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -4470,13 +4176,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>41589</v>
+        <v>40866</v>
       </c>
       <c r="B179" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C179">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -4490,10 +4196,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>41590</v>
+        <v>40867</v>
       </c>
       <c r="B180" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C180">
         <v>20</v>
@@ -4510,13 +4216,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>41592</v>
+        <v>40868</v>
       </c>
       <c r="B181" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C181">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -4530,13 +4236,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>41593</v>
+        <v>40869</v>
       </c>
       <c r="B182" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C182">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -4550,10 +4256,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>41594</v>
+        <v>40870</v>
       </c>
       <c r="B183" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C183">
         <v>20</v>
@@ -4570,13 +4276,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>41595</v>
+        <v>40871</v>
       </c>
       <c r="B184" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C184">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -4590,13 +4296,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>41596</v>
+        <v>40872</v>
       </c>
       <c r="B185" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C185">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -4610,13 +4316,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>41597</v>
+        <v>40873</v>
       </c>
       <c r="B186" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C186">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -4630,13 +4336,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>41598</v>
+        <v>40888</v>
       </c>
       <c r="B187" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C187">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -4650,13 +4356,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>41599</v>
+        <v>41224</v>
       </c>
       <c r="B188" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C188">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -4670,13 +4376,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>41600</v>
+        <v>41226</v>
       </c>
       <c r="B189" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C189">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -4690,33 +4396,33 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>41602</v>
+        <v>41227</v>
       </c>
       <c r="B190" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C190">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
       <c r="F190" s="3">
-        <v>0</v>
+        <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>41603</v>
+        <v>41228</v>
       </c>
       <c r="B191" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -4730,33 +4436,33 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>41606</v>
+        <v>41229</v>
       </c>
       <c r="B192" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C192">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
       <c r="F192" s="3">
-        <v>0</v>
+        <v>3.4482758620689653</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>41607</v>
+        <v>41230</v>
       </c>
       <c r="B193" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C193">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -4770,33 +4476,33 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>41608</v>
+        <v>41231</v>
       </c>
       <c r="B194" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C194">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
       <c r="F194" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>41609</v>
+        <v>41232</v>
       </c>
       <c r="B195" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C195">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -4810,33 +4516,33 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>41610</v>
+        <v>41233</v>
       </c>
       <c r="B196" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C196">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F196" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>41611</v>
+        <v>41234</v>
       </c>
       <c r="B197" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C197">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -4850,13 +4556,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>41947</v>
+        <v>41254</v>
       </c>
       <c r="B198" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C198">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -4870,10 +4576,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>41948</v>
+        <v>41579</v>
       </c>
       <c r="B199" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C199">
         <v>10</v>
@@ -4890,13 +4596,13 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>41949</v>
+        <v>41580</v>
       </c>
       <c r="B200" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C200">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -4910,13 +4616,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>41950</v>
+        <v>41581</v>
       </c>
       <c r="B201" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C201">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -4930,13 +4636,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>41951</v>
+        <v>41582</v>
       </c>
       <c r="B202" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C202">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -4950,13 +4656,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>41952</v>
+        <v>41583</v>
       </c>
       <c r="B203" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C203">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -4970,13 +4676,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>41953</v>
+        <v>41584</v>
       </c>
       <c r="B204" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C204">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -4990,13 +4696,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>41954</v>
+        <v>41585</v>
       </c>
       <c r="B205" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C205">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -5010,13 +4716,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>41955</v>
+        <v>41586</v>
       </c>
       <c r="B206" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C206">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -5030,10 +4736,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>41956</v>
+        <v>41587</v>
       </c>
       <c r="B207" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C207">
         <v>20</v>
@@ -5050,13 +4756,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>41957</v>
+        <v>41588</v>
       </c>
       <c r="B208" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C208">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -5070,10 +4776,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>41958</v>
+        <v>41589</v>
       </c>
       <c r="B209" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C209">
         <v>20</v>
@@ -5090,10 +4796,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>41959</v>
+        <v>41590</v>
       </c>
       <c r="B210" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C210">
         <v>20</v>
@@ -5110,13 +4816,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>41960</v>
+        <v>41592</v>
       </c>
       <c r="B211" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C211">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -5130,13 +4836,13 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>41961</v>
+        <v>41593</v>
       </c>
       <c r="B212" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C212">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -5150,13 +4856,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>41962</v>
+        <v>41594</v>
       </c>
       <c r="B213" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C213">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -5170,13 +4876,13 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>41963</v>
+        <v>41595</v>
       </c>
       <c r="B214" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C214">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -5190,10 +4896,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>41964</v>
+        <v>41596</v>
       </c>
       <c r="B215" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C215">
         <v>20</v>
@@ -5210,10 +4916,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>41965</v>
+        <v>41597</v>
       </c>
       <c r="B216" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C216">
         <v>20</v>
@@ -5230,13 +4936,13 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>41966</v>
+        <v>41598</v>
       </c>
       <c r="B217" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C217">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -5250,13 +4956,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>41967</v>
+        <v>41599</v>
       </c>
       <c r="B218" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C218">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -5270,33 +4976,33 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>41968</v>
+        <v>41600</v>
       </c>
       <c r="B219" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C219">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
       <c r="F219" s="3">
-        <v>3.3333333333333335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>41969</v>
+        <v>41602</v>
       </c>
       <c r="B220" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C220">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -5310,19 +5016,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>41970</v>
+        <v>41603</v>
       </c>
       <c r="B221" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C221">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D221">
         <v>0</v>
       </c>
       <c r="E221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F221" s="3">
         <v>0</v>
@@ -5330,10 +5036,10 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>41971</v>
+        <v>41606</v>
       </c>
       <c r="B222" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C222">
         <v>10</v>
@@ -5350,13 +5056,13 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>42309</v>
+        <v>41607</v>
       </c>
       <c r="B223" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C223">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -5370,33 +5076,33 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>42310</v>
+        <v>41608</v>
       </c>
       <c r="B224" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C224">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>42311</v>
+        <v>41609</v>
       </c>
       <c r="B225" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C225">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -5410,39 +5116,39 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>42312</v>
+        <v>41610</v>
       </c>
       <c r="B226" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C226">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F226" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>42313</v>
+        <v>41611</v>
       </c>
       <c r="B227" s="2">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C227">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227" s="3">
         <v>0</v>
@@ -5450,13 +5156,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>42314</v>
+        <v>41947</v>
       </c>
       <c r="B228" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C228">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -5470,13 +5176,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>42315</v>
+        <v>41948</v>
       </c>
       <c r="B229" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C229">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -5490,10 +5196,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>42316</v>
+        <v>41949</v>
       </c>
       <c r="B230" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C230">
         <v>20</v>
@@ -5510,13 +5216,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>42317</v>
+        <v>41950</v>
       </c>
       <c r="B231" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C231">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -5530,13 +5236,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>42318</v>
+        <v>41951</v>
       </c>
       <c r="B232" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C232">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -5550,13 +5256,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>42319</v>
+        <v>41952</v>
       </c>
       <c r="B233" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C233">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -5570,13 +5276,13 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>42320</v>
+        <v>41953</v>
       </c>
       <c r="B234" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C234">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -5590,13 +5296,13 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>42321</v>
+        <v>41954</v>
       </c>
       <c r="B235" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C235">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -5610,13 +5316,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>42322</v>
+        <v>41955</v>
       </c>
       <c r="B236" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C236">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -5630,13 +5336,13 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>42323</v>
+        <v>41956</v>
       </c>
       <c r="B237" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C237">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -5650,13 +5356,13 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>42324</v>
+        <v>41957</v>
       </c>
       <c r="B238" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C238">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -5670,13 +5376,13 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>42325</v>
+        <v>41958</v>
       </c>
       <c r="B239" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C239">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -5690,10 +5396,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>42326</v>
+        <v>41959</v>
       </c>
       <c r="B240" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C240">
         <v>20</v>
@@ -5710,19 +5416,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>42327</v>
+        <v>41960</v>
       </c>
       <c r="B241" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C241">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241" s="3">
         <v>0</v>
@@ -5730,13 +5436,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>42329</v>
+        <v>41961</v>
       </c>
       <c r="B242" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C242">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -5750,13 +5456,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>42330</v>
+        <v>41962</v>
       </c>
       <c r="B243" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C243">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -5770,13 +5476,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>42331</v>
+        <v>41963</v>
       </c>
       <c r="B244" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C244">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -5790,13 +5496,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>42332</v>
+        <v>41964</v>
       </c>
       <c r="B245" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C245">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -5810,10 +5516,10 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>42334</v>
+        <v>41965</v>
       </c>
       <c r="B246" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C246">
         <v>20</v>
@@ -5830,353 +5536,353 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>42675</v>
+        <v>41966</v>
       </c>
       <c r="B247" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D247">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E247">
         <v>0</v>
       </c>
       <c r="F247" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>42676</v>
+        <v>41967</v>
       </c>
       <c r="B248" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D248">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E248">
         <v>0</v>
       </c>
       <c r="F248" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>42681</v>
+        <v>41968</v>
       </c>
       <c r="B249" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D249">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E249">
         <v>0</v>
       </c>
       <c r="F249" s="3">
-        <v>100</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>42682</v>
+        <v>41969</v>
       </c>
       <c r="B250" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D250">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E250">
         <v>0</v>
       </c>
       <c r="F250" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>42684</v>
+        <v>41970</v>
       </c>
       <c r="B251" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D251">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F251" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>42685</v>
+        <v>41971</v>
       </c>
       <c r="B252" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D252">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E252">
         <v>0</v>
       </c>
       <c r="F252" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>42687</v>
+        <v>42309</v>
       </c>
       <c r="B253" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D253">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E253">
         <v>0</v>
       </c>
       <c r="F253" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>42688</v>
+        <v>42310</v>
       </c>
       <c r="B254" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D254">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E254">
         <v>0</v>
       </c>
       <c r="F254" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>42689</v>
+        <v>42311</v>
       </c>
       <c r="B255" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D255">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E255">
         <v>0</v>
       </c>
       <c r="F255" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>42690</v>
+        <v>42312</v>
       </c>
       <c r="B256" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D256">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
       <c r="F256" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>42691</v>
+        <v>42313</v>
       </c>
       <c r="B257" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D257">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E257">
         <v>0</v>
       </c>
       <c r="F257" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>42692</v>
+        <v>42314</v>
       </c>
       <c r="B258" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D258">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E258">
         <v>0</v>
       </c>
       <c r="F258" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>42694</v>
+        <v>42315</v>
       </c>
       <c r="B259" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D259">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E259">
         <v>0</v>
       </c>
       <c r="F259" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>42695</v>
+        <v>42316</v>
       </c>
       <c r="B260" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D260">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E260">
         <v>0</v>
       </c>
       <c r="F260" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>42696</v>
+        <v>42317</v>
       </c>
       <c r="B261" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D261">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E261">
         <v>0</v>
       </c>
       <c r="F261" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>42697</v>
+        <v>42318</v>
       </c>
       <c r="B262" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D262">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E262">
         <v>0</v>
       </c>
       <c r="F262" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>42698</v>
+        <v>42319</v>
       </c>
       <c r="B263" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D263">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E263">
         <v>0</v>
       </c>
       <c r="F263" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>43776</v>
+        <v>42320</v>
       </c>
       <c r="B264" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C264">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -6190,13 +5896,13 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>43777</v>
+        <v>42321</v>
       </c>
       <c r="B265" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C265">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -6210,13 +5916,13 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>43778</v>
+        <v>42322</v>
       </c>
       <c r="B266" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C266">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -6230,13 +5936,13 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>43779</v>
+        <v>42323</v>
       </c>
       <c r="B267" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C267">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -6250,13 +5956,13 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>43780</v>
+        <v>42324</v>
       </c>
       <c r="B268" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C268">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -6270,13 +5976,13 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>43781</v>
+        <v>42325</v>
       </c>
       <c r="B269" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C269">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -6290,13 +5996,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>43782</v>
+        <v>42326</v>
       </c>
       <c r="B270" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C270">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -6310,19 +6016,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>43784</v>
+        <v>42327</v>
       </c>
       <c r="B271" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C271">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F271" s="3">
         <v>0</v>
@@ -6330,13 +6036,13 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>43785</v>
+        <v>42329</v>
       </c>
       <c r="B272" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C272">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -6350,13 +6056,13 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>43786</v>
+        <v>42330</v>
       </c>
       <c r="B273" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C273">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -6370,13 +6076,13 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>43787</v>
+        <v>42331</v>
       </c>
       <c r="B274" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C274">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -6390,13 +6096,13 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>43788</v>
+        <v>42332</v>
       </c>
       <c r="B275" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C275">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -6410,13 +6116,13 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>43792</v>
+        <v>42334</v>
       </c>
       <c r="B276" s="2">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -6430,26 +6136,625 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B277" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>7</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>42676</v>
+      </c>
+      <c r="B278" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>9</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>42681</v>
+      </c>
+      <c r="B279" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>29</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B280" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>27</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>42684</v>
+      </c>
+      <c r="B281" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>20</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>42685</v>
+      </c>
+      <c r="B282" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>10</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>42687</v>
+      </c>
+      <c r="B283" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>10</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>42688</v>
+      </c>
+      <c r="B284" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>29</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B285" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>28</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>42690</v>
+      </c>
+      <c r="B286" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>19</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>42691</v>
+      </c>
+      <c r="B287" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>30</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>42692</v>
+      </c>
+      <c r="B288" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>20</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>42694</v>
+      </c>
+      <c r="B289" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>10</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>42695</v>
+      </c>
+      <c r="B290" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>30</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>42696</v>
+      </c>
+      <c r="B291" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>10</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>42697</v>
+      </c>
+      <c r="B292" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>29</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>42698</v>
+      </c>
+      <c r="B293" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>12</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>43776</v>
+      </c>
+      <c r="B294" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C294">
+        <v>7</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>43777</v>
+      </c>
+      <c r="B295" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C295">
+        <v>6</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B296" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C296">
+        <v>4</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B297" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C297">
+        <v>4</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>43780</v>
+      </c>
+      <c r="B298" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C298">
+        <v>17</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B299" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B300" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C300">
+        <v>8</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B301" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C301">
+        <v>10</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B302" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C302">
+        <v>7</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>43786</v>
+      </c>
+      <c r="B303" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C303">
+        <v>7</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B304" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C304">
+        <v>8</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B305" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C305">
+        <v>6</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>43792</v>
+      </c>
+      <c r="B306" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
         <v>43795</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B307" s="2">
         <v>2020</v>
       </c>
-      <c r="C277">
+      <c r="C307">
         <v>2</v>
       </c>
-      <c r="D277">
-        <v>0</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277" s="3">
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F277" xr:uid="{52C1752D-D2CC-DD40-AFDD-9BF8F0B33626}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>